--- a/versuch1/data/calculations.xlsx
+++ b/versuch1/data/calculations.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yatekii/repos/glal3/versuch1/data/"/>
@@ -16,8 +16,8 @@
     <sheet name="Eisengehalt" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="eisengehalt" localSheetId="1">Eisengehalt!$A$1:$C$10</definedName>
-    <definedName name="laufzeiten" localSheetId="0">Schallgeschwindigkeit!$A$1:$B$21</definedName>
+    <definedName name="eisengehalt" localSheetId="1">Eisengehalt!$A$3:$C$12</definedName>
+    <definedName name="laufzeiten" localSheetId="0">Schallgeschwindigkeit!$A$3:$B$23</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>measurement</t>
   </si>
@@ -93,15 +93,40 @@
   </si>
   <si>
     <t>(t-mean)^2</t>
+  </si>
+  <si>
+    <t>Mean velocity</t>
+  </si>
+  <si>
+    <t>Sem velocity</t>
+  </si>
+  <si>
+    <t>Schallgeschwindigkeit</t>
+  </si>
+  <si>
+    <t>Eisengehalt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -208,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -221,6 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,11 +532,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -519,541 +543,571 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>7.5900000000000004E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <f>($B$23-B2)^2</f>
-        <v>7.1556249999999738E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7.1599999999999997E-3</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C21" si="0">($B$23-B3)^2</f>
-        <v>2.6406250000000386E-8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>6.9699999999999996E-3</v>
+        <v>7.5900000000000004E-3</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2425625000000088E-7</v>
+        <f>($B$25-B4)^2</f>
+        <v>7.1556249999999738E-8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>7.5500000000000003E-3</v>
+        <v>7.1599999999999997E-3</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>5.1756249999999726E-8</v>
+        <f>($B$25-B5)^2</f>
+        <v>2.6406250000000386E-8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>6.77E-3</v>
+        <v>6.9699999999999996E-3</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0525625000000098E-7</v>
+        <f>($B$25-B6)^2</f>
+        <v>1.2425625000000088E-7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>6.9699999999999996E-3</v>
+        <v>7.5500000000000003E-3</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2425625000000088E-7</v>
+        <f>($B$25-B7)^2</f>
+        <v>5.1756249999999726E-8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>7.7400000000000004E-3</v>
+        <v>6.77E-3</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7430624999999956E-7</v>
+        <f>($B$25-B8)^2</f>
+        <v>3.0525625000000098E-7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>7.1799999999999998E-3</v>
+        <v>6.9699999999999996E-3</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0306250000000321E-8</v>
+        <f>($B$25-B9)^2</f>
+        <v>1.2425625000000088E-7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>7.3200000000000001E-3</v>
+        <v>7.7400000000000004E-3</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2500000000038276E-12</v>
+        <f>($B$25-B10)^2</f>
+        <v>1.7430624999999956E-7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>7.7000000000000002E-3</v>
+        <v>7.1799999999999998E-3</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4250624999999952E-7</v>
+        <f>($B$25-B11)^2</f>
+        <v>2.0306250000000321E-8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>7.4000000000000003E-3</v>
+        <v>7.3200000000000001E-3</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0062499999999136E-9</v>
+        <f>($B$25-B12)^2</f>
+        <v>6.2500000000038276E-12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>7.5799999999999999E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6306249999999516E-8</v>
+        <f>($B$25-B13)^2</f>
+        <v>1.4250624999999952E-7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>7.0400000000000003E-3</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>7.9806250000000358E-8</v>
+        <f>($B$25-B14)^2</f>
+        <v>6.0062499999999136E-9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>7.1700000000000002E-3</v>
+        <v>7.5799999999999999E-3</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3256250000000222E-8</v>
+        <f>($B$25-B15)^2</f>
+        <v>6.6306249999999516E-8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>6.8900000000000003E-3</v>
+        <v>7.0400000000000003E-3</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8705625000000051E-7</v>
+        <f>($B$25-B16)^2</f>
+        <v>7.9806250000000358E-8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>7.1999999999999998E-3</v>
+        <v>7.1700000000000002E-3</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5006250000000264E-8</v>
+        <f>($B$25-B17)^2</f>
+        <v>2.3256250000000222E-8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>7.3299999999999997E-3</v>
+        <v>6.8900000000000003E-3</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>5.6249999999982403E-11</v>
+        <f>($B$25-B18)^2</f>
+        <v>1.8705625000000051E-7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>7.2100000000000003E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>1.265625000000014E-8</v>
+        <f>($B$25-B19)^2</f>
+        <v>1.5006250000000264E-8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>8.0499999999999999E-3</v>
+        <v>7.3299999999999997E-3</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2925624999999848E-7</v>
+        <f>($B$25-B20)^2</f>
+        <v>5.6249999999982403E-11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7.2100000000000003E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <f>($B$25-B21)^2</f>
+        <v>1.265625000000014E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <f>($B$25-B22)^2</f>
+        <v>5.2925624999999848E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B23" s="1">
         <v>7.6299999999999996E-3</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
+      <c r="C23" s="1">
+        <f>($B$25-B23)^2</f>
         <v>9.4556249999999229E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="3">
-        <f>AVERAGE(B2:B21)</f>
+      <c r="B25" s="3">
+        <f>AVERAGE(B4:B23)</f>
         <v>7.3225000000000009E-3</v>
       </c>
-      <c r="C23" s="1">
-        <f>SUM(C2:C21)</f>
+      <c r="C25" s="1">
+        <f>SUM(C4:C23)</f>
         <v>2.0545750000000006E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5">
-        <f>SQRT(C23/20/19)</f>
+      <c r="B26" s="5">
+        <f>SQRT(C25/20/19)</f>
         <v>7.3530784816901512E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="27" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="7">
-        <f>STDEV(B2:B21)</f>
+      <c r="B27" s="7">
+        <f>STDEV(B4:B23)</f>
         <v>3.2883966657900243E-4</v>
       </c>
     </row>
+    <row r="28" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <f>2.561/B25</f>
+        <v>349.74393991123247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3.54</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>20.3</v>
-      </c>
-      <c r="C2">
-        <v>1.2</v>
-      </c>
-      <c r="D2">
-        <f>B2*E2</f>
-        <v>14.097222222222221</v>
-      </c>
-      <c r="E2">
-        <f>1/(C2*C2)</f>
-        <v>0.69444444444444442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>21.9</v>
-      </c>
-      <c r="C3">
-        <v>1.3</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">B3*E3</f>
-        <v>12.958579881656801</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E10" si="1">1/(C3*C3)</f>
-        <v>0.59171597633136086</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>20.3</v>
+      </c>
+      <c r="C4">
+        <v>1.2</v>
+      </c>
+      <c r="D4">
+        <f>B4*E4</f>
+        <v>14.097222222222221</v>
+      </c>
+      <c r="E4">
+        <f>1/(C4*C4)</f>
+        <v>0.69444444444444442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>21.9</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D12" si="0">B5*E5</f>
+        <v>12.958579881656801</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E12" si="1">1/(C5*C5)</f>
+        <v>0.59171597633136086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B6">
         <v>21.1</v>
       </c>
-      <c r="C4">
+      <c r="C6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>17.438016528925619</v>
       </c>
-      <c r="E4">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>0.82644628099173545</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>19.600000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>0.8</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>30.624999999999996</v>
       </c>
-      <c r="E5">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>1.5624999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>19.899999999999999</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>1.3</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>11.77514792899408</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>0.59171597633136086</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C9">
         <v>1.3</v>
       </c>
-      <c r="D7">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>10.650887573964496</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>0.59171597633136086</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B10">
         <v>19.399999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>19.399999999999999</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>23.2</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D9">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="E9">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>21.6</v>
       </c>
-      <c r="C10">
+      <c r="C12">
         <v>0.8</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>1.5624999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="8">
-        <f>AVERAGE(B2:B10)</f>
+      <c r="B14" s="8">
+        <f>AVERAGE(B4:B12)</f>
         <v>20.555555555555557</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="10">
-        <f>AVEDEV(B2:B10)</f>
+      <c r="B15" s="10">
+        <f>AVEDEV(B4:B12)</f>
         <v>1.2395061728395065</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="5">
-        <f>SUM(D2:D10)/SUM(E2:E10)</f>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="5">
+        <f>SUM(D4:D12)/SUM(E4:E12)</f>
         <v>20.400738568222778</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7">
-        <f>1/SQRT(SUM(E2:E10))</f>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="7">
+        <f>1/SQRT(SUM(E4:E12))</f>
         <v>0.36105462655527926</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>